--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Thbs1-Itga3.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H2">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J2">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N2">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O2">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P2">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q2">
-        <v>729.971896793895</v>
+        <v>308.8273061627909</v>
       </c>
       <c r="R2">
-        <v>6569.747071145055</v>
+        <v>2779.445755465119</v>
       </c>
       <c r="S2">
-        <v>0.1224452493032605</v>
+        <v>0.06984636403566855</v>
       </c>
       <c r="T2">
-        <v>0.1224452493032605</v>
+        <v>0.06984636403566856</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H3">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J3">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.185244</v>
       </c>
       <c r="O3">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P3">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q3">
-        <v>129.80189417022</v>
+        <v>24.102381415428</v>
       </c>
       <c r="R3">
-        <v>1168.21704753198</v>
+        <v>216.921432738852</v>
       </c>
       <c r="S3">
-        <v>0.02177292764490567</v>
+        <v>0.005451149146705046</v>
       </c>
       <c r="T3">
-        <v>0.02177292764490567</v>
+        <v>0.005451149146705047</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H4">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J4">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N4">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O4">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P4">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q4">
-        <v>322.168195051865</v>
+        <v>45.30532847151799</v>
       </c>
       <c r="R4">
-        <v>2899.513755466785</v>
+        <v>407.7479562436619</v>
       </c>
       <c r="S4">
-        <v>0.05404038858751445</v>
+        <v>0.01024654362496411</v>
       </c>
       <c r="T4">
-        <v>0.05404038858751443</v>
+        <v>0.01024654362496411</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.253015</v>
+        <v>22.700661</v>
       </c>
       <c r="H5">
-        <v>366.759045</v>
+        <v>68.10198299999999</v>
       </c>
       <c r="I5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="J5">
-        <v>0.1988639364328829</v>
+        <v>0.08615268874617349</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N5">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O5">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P5">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q5">
-        <v>3.60899050481</v>
+        <v>2.691080125793</v>
       </c>
       <c r="R5">
-        <v>32.48091454329001</v>
+        <v>24.219721132137</v>
       </c>
       <c r="S5">
-        <v>0.0006053708972022665</v>
+        <v>0.0006086319388357804</v>
       </c>
       <c r="T5">
-        <v>0.0006053708972022663</v>
+        <v>0.0006086319388357804</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,40 +791,40 @@
         <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J6">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N6">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O6">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P6">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q6">
-        <v>791.4238440983349</v>
+        <v>1803.182810029445</v>
       </c>
       <c r="R6">
-        <v>7122.814596885015</v>
+        <v>16228.645290265</v>
       </c>
       <c r="S6">
-        <v>0.1327531790207075</v>
+        <v>0.407819387919626</v>
       </c>
       <c r="T6">
-        <v>0.1327531790207075</v>
+        <v>0.4078193879196262</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J7">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.185244</v>
       </c>
       <c r="O7">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P7">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q7">
         <v>140.72913561006</v>
@@ -883,10 +883,10 @@
         <v>1266.56222049054</v>
       </c>
       <c r="S7">
-        <v>0.02360585958129213</v>
+        <v>0.03182820378928498</v>
       </c>
       <c r="T7">
-        <v>0.02360585958129212</v>
+        <v>0.03182820378928499</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J8">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N8">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O8">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P8">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q8">
-        <v>349.2895993585894</v>
+        <v>264.5290357178322</v>
       </c>
       <c r="R8">
-        <v>3143.606394227305</v>
+        <v>2380.76132146049</v>
       </c>
       <c r="S8">
-        <v>0.05858972415286572</v>
+        <v>0.05982758311213802</v>
       </c>
       <c r="T8">
-        <v>0.0585897241528657</v>
+        <v>0.05982758311213805</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986086</v>
       </c>
       <c r="J9">
-        <v>0.2156050961899926</v>
+        <v>0.5030288587986087</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N9">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O9">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P9">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q9">
-        <v>3.912809727574444</v>
+        <v>15.71269549812389</v>
       </c>
       <c r="R9">
-        <v>35.21528754817</v>
+        <v>141.414259483115</v>
       </c>
       <c r="S9">
-        <v>0.0006563334351272283</v>
+        <v>0.003553683977559497</v>
       </c>
       <c r="T9">
-        <v>0.0006563334351272282</v>
+        <v>0.003553683977559498</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H10">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J10">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N10">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O10">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P10">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q10">
-        <v>238.06285400408</v>
+        <v>570.638348219641</v>
       </c>
       <c r="R10">
-        <v>2142.56568603672</v>
+        <v>5135.745133976769</v>
       </c>
       <c r="S10">
-        <v>0.03993258594803902</v>
+        <v>0.129059228271259</v>
       </c>
       <c r="T10">
-        <v>0.03993258594803902</v>
+        <v>0.129059228271259</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H11">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J11">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.185244</v>
       </c>
       <c r="O11">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P11">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q11">
-        <v>42.33177950687999</v>
+        <v>44.535385455228</v>
       </c>
       <c r="R11">
-        <v>380.98601556192</v>
+        <v>400.8184690970519</v>
       </c>
       <c r="S11">
-        <v>0.007100718970053815</v>
+        <v>0.01007240837484421</v>
       </c>
       <c r="T11">
-        <v>0.007100718970053814</v>
+        <v>0.01007240837484421</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H12">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J12">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N12">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O12">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P12">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q12">
-        <v>105.0674420758489</v>
+        <v>83.71331578726243</v>
       </c>
       <c r="R12">
-        <v>945.6069786826399</v>
+        <v>753.4198420853619</v>
       </c>
       <c r="S12">
-        <v>0.01762397866977828</v>
+        <v>0.01893314034228523</v>
       </c>
       <c r="T12">
-        <v>0.01762397866977828</v>
+        <v>0.01893314034228524</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>39.86989333333333</v>
+        <v>41.94534433333333</v>
       </c>
       <c r="H13">
-        <v>119.60968</v>
+        <v>125.836033</v>
       </c>
       <c r="I13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="J13">
-        <v>0.06485471080959287</v>
+        <v>0.159189381961201</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N13">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O13">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P13">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q13">
-        <v>1.176985831128889</v>
+        <v>4.972466771120779</v>
       </c>
       <c r="R13">
-        <v>10.59287248016</v>
+        <v>44.752200940087</v>
       </c>
       <c r="S13">
-        <v>0.0001974272217217601</v>
+        <v>0.001124604972812513</v>
       </c>
       <c r="T13">
-        <v>0.0001974272217217601</v>
+        <v>0.001124604972812513</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H14">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J14">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>5.970993</v>
+        <v>13.604331</v>
       </c>
       <c r="N14">
-        <v>17.912979</v>
+        <v>40.812993</v>
       </c>
       <c r="O14">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878804</v>
       </c>
       <c r="P14">
-        <v>0.6157237531330177</v>
+        <v>0.8107276168878805</v>
       </c>
       <c r="Q14">
-        <v>1911.251690174722</v>
+        <v>902.002353308628</v>
       </c>
       <c r="R14">
-        <v>17201.2652115725</v>
+        <v>8118.021179777651</v>
       </c>
       <c r="S14">
-        <v>0.3205927388610107</v>
+        <v>0.2040026366613267</v>
       </c>
       <c r="T14">
-        <v>0.3205927388610107</v>
+        <v>0.2040026366613268</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H15">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J15">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.185244</v>
       </c>
       <c r="O15">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486458</v>
       </c>
       <c r="P15">
-        <v>0.10948655666511</v>
+        <v>0.06327311690486459</v>
       </c>
       <c r="Q15">
-        <v>339.854302213992</v>
+        <v>70.39664020382399</v>
       </c>
       <c r="R15">
-        <v>3058.688719925928</v>
+        <v>633.569761834416</v>
       </c>
       <c r="S15">
-        <v>0.05700705046885843</v>
+        <v>0.01592135559403034</v>
       </c>
       <c r="T15">
-        <v>0.05700705046885842</v>
+        <v>0.01592135559403034</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H16">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J16">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.635257666666666</v>
+        <v>1.995771333333333</v>
       </c>
       <c r="N16">
-        <v>7.905773</v>
+        <v>5.987314</v>
       </c>
       <c r="O16">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389115</v>
       </c>
       <c r="P16">
-        <v>0.2717455439978843</v>
+        <v>0.1189346934389116</v>
       </c>
       <c r="Q16">
-        <v>843.518099830725</v>
+        <v>132.3248044562106</v>
       </c>
       <c r="R16">
-        <v>7591.662898476526</v>
+        <v>1190.923240105896</v>
       </c>
       <c r="S16">
-        <v>0.1414914525877259</v>
+        <v>0.02992742635952415</v>
       </c>
       <c r="T16">
-        <v>0.1414914525877259</v>
+        <v>0.02992742635952416</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>320.0894206666666</v>
+        <v>66.302588</v>
       </c>
       <c r="H17">
-        <v>960.2682619999999</v>
+        <v>198.907764</v>
       </c>
       <c r="I17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="J17">
-        <v>0.5206762565675317</v>
+        <v>0.2516290704940168</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.02952066666666667</v>
+        <v>0.1185463333333334</v>
       </c>
       <c r="N17">
-        <v>0.088562</v>
+        <v>0.355639</v>
       </c>
       <c r="O17">
-        <v>0.003044146203987976</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="P17">
-        <v>0.003044146203987975</v>
+        <v>0.007064572768343379</v>
       </c>
       <c r="Q17">
-        <v>9.44925309102711</v>
+        <v>7.859928697910668</v>
       </c>
       <c r="R17">
-        <v>85.043277819244</v>
+        <v>70.739358281196</v>
       </c>
       <c r="S17">
-        <v>0.001585014649936721</v>
+        <v>0.001777651879135588</v>
       </c>
       <c r="T17">
-        <v>0.001585014649936721</v>
+        <v>0.001777651879135588</v>
       </c>
     </row>
   </sheetData>
